--- a/data/GC-Net locations and numbers 2014 modified.xlsx
+++ b/data/GC-Net locations and numbers 2014 modified.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bav\GitHub\GCNet_positions\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason/Dropbox/AWS/GCNET/GCNet_positions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB07BA7-7E2F-4442-BA7D-F6B9C7519571}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B95B5DF-855C-0045-B9CC-EA1093FE2E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{75EDCD04-C495-BB42-AD5C-D4411AEBA1B8}"/>
+    <workbookView xWindow="6800" yWindow="500" windowWidth="29040" windowHeight="17640" xr2:uid="{75EDCD04-C495-BB42-AD5C-D4411AEBA1B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,11 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="130">
-  <si>
-    <t>Statio
-n</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="131">
   <si>
     <t>Station Name</t>
   </si>
@@ -53,9 +49,6 @@
 code</t>
   </si>
   <si>
-    <t>ETH 10 m</t>
-  </si>
-  <si>
     <t>1990.4</t>
   </si>
   <si>
@@ -134,298 +127,307 @@
     <t>1996.38</t>
   </si>
   <si>
+    <t>1996.40</t>
+  </si>
+  <si>
+    <t>803064FE</t>
+  </si>
+  <si>
+    <t>210/16</t>
+  </si>
+  <si>
+    <t>1996.47</t>
+  </si>
+  <si>
+    <t>206/14</t>
+  </si>
+  <si>
+    <t>Saddle</t>
+  </si>
+  <si>
+    <t>1997.30</t>
+  </si>
+  <si>
+    <t>213/16</t>
+  </si>
+  <si>
+    <t>South Dome</t>
+  </si>
+  <si>
+    <t>1997.31</t>
+  </si>
+  <si>
+    <t>213/18</t>
+  </si>
+  <si>
+    <t>NASA-E</t>
+  </si>
+  <si>
+    <t>1997.34</t>
+  </si>
+  <si>
+    <t>8030E2EA</t>
+  </si>
+  <si>
+    <t>226/7</t>
+  </si>
+  <si>
+    <t>1997.36</t>
+  </si>
+  <si>
+    <t>1997.52</t>
+  </si>
+  <si>
+    <t>NASA-SE</t>
+  </si>
+  <si>
+    <t>1998.30</t>
+  </si>
+  <si>
+    <t>8030870C</t>
+  </si>
+  <si>
+    <t>214/15</t>
+  </si>
+  <si>
+    <t>1999.38</t>
+  </si>
+  <si>
+    <t>80304212:22</t>
+  </si>
+  <si>
+    <t>69º24′53″N,   50º05′34″W</t>
+  </si>
+  <si>
+    <t>1999.41</t>
+  </si>
+  <si>
+    <t>8030947A</t>
+  </si>
+  <si>
+    <t>1999.46</t>
+  </si>
+  <si>
+    <t>2000.47</t>
+  </si>
+  <si>
+    <t>2002.40</t>
+  </si>
+  <si>
+    <t>2003.40</t>
+  </si>
+  <si>
+    <t>NEEM</t>
+  </si>
+  <si>
+    <t>8030C406</t>
+  </si>
+  <si>
+    <t>204/8</t>
+  </si>
+  <si>
+    <t>69°33′32″N,   49°21′10″W</t>
+  </si>
+  <si>
+    <t>69°52′32″N,   47°01′02″W</t>
+  </si>
+  <si>
+    <t>73°50′28″N,   49°31′09″W</t>
+  </si>
+  <si>
+    <t>77°08′14″N,   61°02′30″W</t>
+  </si>
+  <si>
+    <t>78°31′40″N,   56°50′26″W</t>
+  </si>
+  <si>
+    <t>72°34′46″N,   38°30′20″W</t>
+  </si>
+  <si>
+    <t>78°01’05″N,   33°58′20″W</t>
+  </si>
+  <si>
+    <t>66°28′54″N,   46°17′18″W</t>
+  </si>
+  <si>
+    <t>69°29′40″N,   49°42′26″W</t>
+  </si>
+  <si>
+    <t>65°59′59″N,   44°30′07″W</t>
+  </si>
+  <si>
+    <t>63°08′56″N,   44°49′02″W</t>
+  </si>
+  <si>
+    <t>75°00′05″N,   29°59′13″W</t>
+  </si>
+  <si>
+    <t>69°54’48” N, 46°51’17”W</t>
+  </si>
+  <si>
+    <t>75°05′58″N,   42°19′59″W</t>
+  </si>
+  <si>
+    <t>66°28′42″N,   42°29′46″W</t>
+  </si>
+  <si>
+    <t>69°41′58″N,   33°00′21″W</t>
+  </si>
+  <si>
+    <t>65°45′30″N,   39°36′06″W</t>
+  </si>
+  <si>
+    <t>69°23′40″N,   50°18′36″W</t>
+  </si>
+  <si>
+    <t>67°08’09”N, 47°17’32” W</t>
+  </si>
+  <si>
+    <t>80°41′01″N,   60°17′35″W</t>
+  </si>
+  <si>
+    <t>80°05’ 39” N, 58°07’ 16”W</t>
+  </si>
+  <si>
+    <t>77°26’ 28” N, 51°04’ 54”W</t>
+  </si>
+  <si>
+    <t>75°37' 36" N, 35°59' 29” W</t>
+  </si>
+  <si>
+    <t>JAR3</t>
+  </si>
+  <si>
+    <t>KULU</t>
+  </si>
+  <si>
+    <t>JAR2</t>
+  </si>
+  <si>
+    <t>KAR</t>
+  </si>
+  <si>
+    <t>NGRIP</t>
+  </si>
+  <si>
+    <t>Crawford P2</t>
+  </si>
+  <si>
+    <t>JAR1</t>
+  </si>
+  <si>
+    <t>Aurora</t>
+  </si>
+  <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>SW0</t>
+  </si>
+  <si>
+    <t>SWC</t>
+  </si>
+  <si>
+    <t>CP1</t>
+  </si>
+  <si>
+    <t>NAU</t>
+  </si>
+  <si>
+    <t>GIT</t>
+  </si>
+  <si>
+    <t>HUM</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>TUN</t>
+  </si>
+  <si>
+    <t>DY2</t>
+  </si>
+  <si>
+    <t>JAR</t>
+  </si>
+  <si>
+    <t>SDL</t>
+  </si>
+  <si>
+    <t>SDM</t>
+  </si>
+  <si>
+    <t>NSE</t>
+  </si>
+  <si>
+    <t>CP2</t>
+  </si>
+  <si>
+    <t>NGP</t>
+  </si>
+  <si>
+    <t>JR2</t>
+  </si>
+  <si>
+    <t>KUL</t>
+  </si>
+  <si>
+    <t>JR3</t>
+  </si>
+  <si>
+    <t>AUR</t>
+  </si>
+  <si>
+    <t>PTG</t>
+  </si>
+  <si>
+    <t>PET</t>
+  </si>
+  <si>
+    <t>NEM</t>
+  </si>
+  <si>
+    <t>EGP</t>
+  </si>
+  <si>
+    <t>elev</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>Transmitter</t>
+  </si>
+  <si>
+    <t>TransmitterID</t>
+  </si>
+  <si>
+    <t>AntennaAz./Elev</t>
+  </si>
+  <si>
+    <t>NAE</t>
+  </si>
+  <si>
+    <t>typex</t>
+  </si>
+  <si>
+    <t>Station</t>
+  </si>
+  <si>
+    <t>PetermannGlacier</t>
+  </si>
+  <si>
+    <t>SwissCamp10m</t>
+  </si>
+  <si>
+    <t>PetermannELA</t>
+  </si>
+  <si>
     <t>DYE-2</t>
   </si>
   <si>
-    <t>1996.40</t>
-  </si>
-  <si>
-    <t>803064FE</t>
-  </si>
-  <si>
-    <t>210/16</t>
-  </si>
-  <si>
-    <t>1996.47</t>
-  </si>
-  <si>
-    <t>206/14</t>
-  </si>
-  <si>
-    <t>Saddle</t>
-  </si>
-  <si>
-    <t>1997.30</t>
-  </si>
-  <si>
-    <t>213/16</t>
-  </si>
-  <si>
-    <t>South Dome</t>
-  </si>
-  <si>
-    <t>1997.31</t>
-  </si>
-  <si>
-    <t>213/18</t>
-  </si>
-  <si>
-    <t>NASA-E</t>
-  </si>
-  <si>
-    <t>1997.34</t>
-  </si>
-  <si>
-    <t>8030E2EA</t>
-  </si>
-  <si>
-    <t>226/7</t>
-  </si>
-  <si>
-    <t>1997.36</t>
-  </si>
-  <si>
-    <t>1997.52</t>
-  </si>
-  <si>
-    <t>NASA-SE</t>
-  </si>
-  <si>
-    <t>1998.30</t>
-  </si>
-  <si>
-    <t>8030870C</t>
-  </si>
-  <si>
-    <t>214/15</t>
-  </si>
-  <si>
-    <t>1999.38</t>
-  </si>
-  <si>
-    <t>80304212:22</t>
-  </si>
-  <si>
-    <t>69º24′53″N,   50º05′34″W</t>
-  </si>
-  <si>
-    <t>1999.41</t>
-  </si>
-  <si>
-    <t>8030947A</t>
-  </si>
-  <si>
-    <t>1999.46</t>
-  </si>
-  <si>
-    <t>2000.47</t>
-  </si>
-  <si>
-    <t>Petermann Gl.*</t>
-  </si>
-  <si>
-    <t>2002.40</t>
-  </si>
-  <si>
-    <t>Peterman ELA</t>
-  </si>
-  <si>
-    <t>2003.40</t>
-  </si>
-  <si>
-    <t>NEEM</t>
-  </si>
-  <si>
-    <t>8030C406</t>
-  </si>
-  <si>
-    <t>204/8</t>
-  </si>
-  <si>
-    <t>EGRIP</t>
-  </si>
-  <si>
-    <t>69°33′32″N,   49°21′10″W</t>
-  </si>
-  <si>
-    <t>69°52′32″N,   47°01′02″W</t>
-  </si>
-  <si>
-    <t>73°50′28″N,   49°31′09″W</t>
-  </si>
-  <si>
-    <t>77°08′14″N,   61°02′30″W</t>
-  </si>
-  <si>
-    <t>78°31′40″N,   56°50′26″W</t>
-  </si>
-  <si>
-    <t>72°34′46″N,   38°30′20″W</t>
-  </si>
-  <si>
-    <t>78°01’05″N,   33°58′20″W</t>
-  </si>
-  <si>
-    <t>66°28′54″N,   46°17′18″W</t>
-  </si>
-  <si>
-    <t>69°29′40″N,   49°42′26″W</t>
-  </si>
-  <si>
-    <t>65°59′59″N,   44°30′07″W</t>
-  </si>
-  <si>
-    <t>63°08′56″N,   44°49′02″W</t>
-  </si>
-  <si>
-    <t>75°00′05″N,   29°59′13″W</t>
-  </si>
-  <si>
-    <t>69°54’48” N, 46°51’17”W</t>
-  </si>
-  <si>
-    <t>75°05′58″N,   42°19′59″W</t>
-  </si>
-  <si>
-    <t>66°28′42″N,   42°29′46″W</t>
-  </si>
-  <si>
-    <t>69°41′58″N,   33°00′21″W</t>
-  </si>
-  <si>
-    <t>65°45′30″N,   39°36′06″W</t>
-  </si>
-  <si>
-    <t>69°23′40″N,   50°18′36″W</t>
-  </si>
-  <si>
-    <t>67°08’09”N, 47°17’32” W</t>
-  </si>
-  <si>
-    <t>80°41′01″N,   60°17′35″W</t>
-  </si>
-  <si>
-    <t>80°05’ 39” N, 58°07’ 16”W</t>
-  </si>
-  <si>
-    <t>77°26’ 28” N, 51°04’ 54”W</t>
-  </si>
-  <si>
-    <t>75°37' 36" N, 35°59' 29” W</t>
-  </si>
-  <si>
-    <t>JAR3</t>
-  </si>
-  <si>
-    <t>KULU</t>
-  </si>
-  <si>
-    <t>JAR2</t>
-  </si>
-  <si>
-    <t>KAR</t>
-  </si>
-  <si>
-    <t>NGRIP</t>
-  </si>
-  <si>
-    <t>Crawford P2</t>
-  </si>
-  <si>
-    <t>JAR1</t>
-  </si>
-  <si>
-    <t>Aurora</t>
-  </si>
-  <si>
-    <t>nickname</t>
-  </si>
-  <si>
-    <t>SW0</t>
-  </si>
-  <si>
-    <t>SWC</t>
-  </si>
-  <si>
-    <t>CP1</t>
-  </si>
-  <si>
-    <t>NAU</t>
-  </si>
-  <si>
-    <t>GIT</t>
-  </si>
-  <si>
-    <t>HUM</t>
-  </si>
-  <si>
-    <t>SUM</t>
-  </si>
-  <si>
-    <t>TUN</t>
-  </si>
-  <si>
-    <t>DY2</t>
-  </si>
-  <si>
-    <t>JAR</t>
-  </si>
-  <si>
-    <t>SDL</t>
-  </si>
-  <si>
-    <t>SDM</t>
-  </si>
-  <si>
-    <t>NSE</t>
-  </si>
-  <si>
-    <t>CP2</t>
-  </si>
-  <si>
-    <t>NGP</t>
-  </si>
-  <si>
-    <t>JR2</t>
-  </si>
-  <si>
-    <t>KUL</t>
-  </si>
-  <si>
-    <t>JR3</t>
-  </si>
-  <si>
-    <t>AUR</t>
-  </si>
-  <si>
-    <t>PTG</t>
-  </si>
-  <si>
-    <t>PET</t>
-  </si>
-  <si>
-    <t>NEM</t>
-  </si>
-  <si>
-    <t>EGP</t>
-  </si>
-  <si>
-    <t>elev</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>Transmitter</t>
-  </si>
-  <si>
-    <t>TransmitterID</t>
-  </si>
-  <si>
-    <t>AntennaAz./Elev</t>
-  </si>
-  <si>
-    <t>NAE</t>
+    <t>EastGRIP</t>
   </si>
 </sst>
 </file>
@@ -777,117 +779,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE157BAC-479C-5344-8218-1A5F8192C0DA}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.59765625" customWidth="1"/>
-    <col min="3" max="3" width="10.8984375" customWidth="1"/>
-    <col min="4" max="4" width="23.59765625" customWidth="1"/>
-    <col min="5" max="5" width="8.19921875" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
         <v>124</v>
       </c>
-      <c r="F1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E2">
         <v>1176</v>
       </c>
       <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
       </c>
       <c r="J2">
         <v>3.0324E-2</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E3">
         <v>1176</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>80300118</v>
       </c>
       <c r="I3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J3">
         <v>2.8472000000000001E-2</v>
@@ -895,34 +903,37 @@
       <c r="K3">
         <v>4458</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E4">
         <v>2022</v>
       </c>
       <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
         <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
       </c>
       <c r="J4">
         <v>2.8587999999999999E-2</v>
@@ -930,34 +941,37 @@
       <c r="K4">
         <v>4456</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E5">
         <v>2334</v>
       </c>
       <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
         <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
       </c>
       <c r="J5">
         <v>1.2500000000000001E-2</v>
@@ -965,104 +979,113 @@
       <c r="K5">
         <v>4443</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E6">
         <v>1869</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>107282</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K6">
         <v>4435</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E7">
         <v>1995</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H7">
         <v>107283</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K7">
         <v>4432</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E8">
         <v>3215</v>
       </c>
       <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
         <v>27</v>
-      </c>
-      <c r="G8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" t="s">
-        <v>29</v>
       </c>
       <c r="J8">
         <v>2.8704E-2</v>
@@ -1070,69 +1093,75 @@
       <c r="K8">
         <v>4418</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E9">
         <v>2052</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H9">
         <v>107285</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K9">
         <v>4425</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E10">
         <v>2099</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J10">
         <v>2.8819000000000001E-2</v>
@@ -1140,34 +1169,37 @@
       <c r="K10">
         <v>4464</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E11">
         <v>932</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <v>80303482</v>
       </c>
       <c r="I11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J11">
         <v>2.8934999999999999E-2</v>
@@ -1175,34 +1207,37 @@
       <c r="K11">
         <v>4452</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E12">
         <v>2467</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H12">
         <v>80307788</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J12">
         <v>2.9051E-2</v>
@@ -1210,34 +1245,37 @@
       <c r="K12">
         <v>4485</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E13">
         <v>2901</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H13">
         <v>80305164</v>
       </c>
       <c r="I13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J13">
         <v>2.9166999999999998E-2</v>
@@ -1245,34 +1283,37 @@
       <c r="K13">
         <v>4492</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E14">
         <v>2614</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J14">
         <v>1.2616E-2</v>
@@ -1280,104 +1321,113 @@
       <c r="K14">
         <v>4420</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E15">
         <v>1990</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K15">
         <v>4450</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E16">
         <v>2941</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H16">
         <v>24739</v>
       </c>
       <c r="I16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K16">
         <v>4440</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E17">
         <v>2373</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J17">
         <v>2.9398000000000001E-2</v>
@@ -1385,69 +1435,75 @@
       <c r="K17">
         <v>4488</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E18">
         <v>2579</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I18">
         <v>-223</v>
       </c>
       <c r="J18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>507</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J19">
         <v>2.9281999999999999E-2</v>
@@ -1455,54 +1511,60 @@
       <c r="K19">
         <v>4460</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E20">
         <v>878</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I20">
         <v>217</v>
       </c>
       <c r="J20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E21">
         <v>283</v>
@@ -1511,138 +1573,150 @@
         <v>1999</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E22">
         <v>1798</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E23">
         <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H23">
         <v>107284</v>
       </c>
       <c r="I23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K23">
         <v>4430</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E24">
         <v>965</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H24">
         <v>107284</v>
       </c>
       <c r="I24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E25">
         <v>2454</v>
@@ -1651,13 +1725,13 @@
         <v>2006</v>
       </c>
       <c r="G25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H25" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I25" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J25">
         <v>2.8355999999999999E-2</v>
@@ -1665,19 +1739,22 @@
       <c r="K25">
         <v>4436</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E26">
         <v>2600</v>
@@ -1686,13 +1763,16 @@
         <v>2014</v>
       </c>
       <c r="G26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J26">
         <v>2.9281999999999999E-2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
